--- a/rest_book/통신규약.xlsx
+++ b/rest_book/통신규약.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="내보내기 요약" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="책 정보 찾기" sheetId="5" r:id="rId5"/>
     <sheet name="책 상세 정보 보기" sheetId="6" r:id="rId6"/>
     <sheet name="책 정보 추가" sheetId="7" r:id="rId7"/>
+    <sheet name="책 정보 수정" sheetId="8" r:id="rId8"/>
+    <sheet name="책 정보 삭제" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="146">
   <si>
     <t>이 문서는 Numbers에서 내보낸 문서입니다. 각 표가 Excel 워크시트로 변환되었습니다. 각 Numbers 시트에 있는 모든 다른 대상체는 개별 워크시트에 위치 지정되었습니다. Excel에서 공식 계산이 다를 수 있으니 유의하십시오.</t>
   </si>
@@ -356,111 +358,6 @@
   </si>
   <si>
     <r>
-      <t>영화</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
-      </rPr>
-      <t>상세</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
-      </rPr>
-      <t>보기</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>영화</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <color indexed="8"/>
@@ -733,10 +630,6 @@
   </si>
   <si>
     <t>URL 예</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Books/index</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2930,6 +2823,1878 @@
   <si>
     <t>책의 index</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>메세지 구조</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    “msg” : index </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경되었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>.,
+   {
+    “title”:”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해리포터와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마법사의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve">",
+    "writer":”J. K. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>롤링</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>”,
+    “year”:1997,
+    “summary”:”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심술궂은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부부와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사촌에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구박을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받으며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살아가던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고아소년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포터에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마법세계의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초대장이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날아온다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하략</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> ..”
+  }
+}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Books/index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐트 타입</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Books/0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> index</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작가</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인쇄일</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>줄거리</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> index</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작가</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제된초판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인쇄일</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>줄거리</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    “msg” : “SUCCESS : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하단의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제되었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>.”,
+   {
+    "index":0,
+    "title":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>",
+    "writer":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앨빈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토플러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>",
+    "year":2006,
+    "summary":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역사상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한번도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경험해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혁명이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다가오고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미래의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떻게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들어지고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지배할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것인가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하략</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>.."
+  }
+}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>책</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>책</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>책</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>상세</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>보기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>책</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Apple SD 산돌고딕 Neo 일반체"/>
+      </rPr>
+      <t>추가</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3649,7 +5414,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3827,6 +5592,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3881,23 +5667,26 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5090,7 +6879,7 @@
   <dimension ref="B3:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
@@ -5100,11 +6889,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
     </row>
     <row r="7" spans="2:4" ht="18">
       <c r="B7" s="1" t="s">
@@ -5135,7 +6924,7 @@
     </row>
     <row r="11" spans="2:4" ht="15">
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5145,13 +6934,13 @@
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="64" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15">
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -5161,13 +6950,13 @@
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="79" t="s">
-        <v>86</v>
+      <c r="D14" s="64" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15">
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5177,14 +6966,42 @@
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="79" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75"/>
-    <row r="18" ht="12.75"/>
-    <row r="19" ht="12.75"/>
-    <row r="20" ht="12.75"/>
+      <c r="D16" s="64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15">
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" ht="15">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15">
+      <c r="B19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" ht="15">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
@@ -5193,8 +7010,10 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'작성방법'!R1C1" display="작성방법"/>
     <hyperlink ref="D12" location="'책 정보 찾기'!A1" display="책 정보 찾기"/>
-    <hyperlink ref="D14" location="'책 상세 정보 보기'!A1" display="영화 상세 정보 보기"/>
-    <hyperlink ref="D16" location="'책 정보 추가'!A1" display="영화 정보 추가"/>
+    <hyperlink ref="D14" location="'책 상세 정보 보기'!A1" display="책 상세 정보 보기"/>
+    <hyperlink ref="D16" location="'책 정보 추가'!A1" display="책 정보 추가"/>
+    <hyperlink ref="D18" location="'책 정보 수정'!A1" display="책 정보 수정"/>
+    <hyperlink ref="D20" location="'책 정보 삭제'!A1" display="책 정보 삭제"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5456,15 +7275,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="20.85" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -5743,11 +7562,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1">
       <c r="A1" s="32"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
@@ -5832,11 +7651,11 @@
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1">
       <c r="A10" s="40"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1">
@@ -5851,7 +7670,7 @@
       <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="75" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="35" t="s">
@@ -5864,7 +7683,7 @@
       <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A13" s="69"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="35" t="s">
         <v>60</v>
       </c>
@@ -5875,7 +7694,7 @@
       <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A14" s="69"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="35"/>
       <c r="C14" s="36"/>
       <c r="D14" s="42"/>
@@ -5885,10 +7704,10 @@
       <c r="A15" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="66"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
     </row>
@@ -5936,7 +7755,7 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -5952,11 +7771,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1">
       <c r="A1" s="47"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
@@ -5975,7 +7794,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -6000,7 +7819,7 @@
         <v>67</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="51"/>
@@ -6008,10 +7827,10 @@
     <row r="6" spans="1:5" ht="20.25" customHeight="1">
       <c r="A6" s="49"/>
       <c r="B6" s="50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="51"/>
@@ -6022,22 +7841,22 @@
         <v>68</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="66"/>
+        <v>98</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="73"/>
       <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1">
@@ -6060,11 +7879,11 @@
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1">
       <c r="A11" s="52"/>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1">
@@ -6079,7 +7898,7 @@
       <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="82" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="50" t="s">
@@ -6092,59 +7911,59 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A14" s="76"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="50" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>120</v>
+        <v>91</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>117</v>
       </c>
       <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A15" s="76"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="50"/>
       <c r="C15" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A16" s="76"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="50"/>
       <c r="C16" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A17" s="76"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="50"/>
       <c r="C17" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A18" s="76"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="50"/>
       <c r="C18" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E18" s="51"/>
     </row>
@@ -6152,10 +7971,10 @@
       <c r="A19" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="81"/>
+      <c r="B19" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="85"/>
       <c r="D19" s="7"/>
       <c r="E19" s="55"/>
     </row>
@@ -6184,7 +8003,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -6197,22 +8016,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1">
       <c r="A1" s="47"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="B2" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1">
@@ -6220,11 +8039,11 @@
         <v>44</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" s="51"/>
     </row>
@@ -6263,10 +8082,10 @@
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1">
       <c r="A7" s="54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -6274,11 +8093,11 @@
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1">
       <c r="A8" s="52"/>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1">
@@ -6293,7 +8112,7 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="82" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="50" t="s">
@@ -6306,7 +8125,7 @@
       <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A11" s="76"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="50" t="s">
         <v>73</v>
       </c>
@@ -6317,57 +8136,57 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A12" s="76"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="44"/>
       <c r="C12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>120</v>
+        <v>91</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>117</v>
       </c>
       <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A13" s="76"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="44"/>
       <c r="C13" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A14" s="76"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="44"/>
       <c r="C14" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A15" s="76"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="44"/>
       <c r="C15" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A16" s="76"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="44"/>
       <c r="C16" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E16" s="51"/>
     </row>
@@ -6375,11 +8194,11 @@
       <c r="A17" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="77" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
+      <c r="B17" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1">
@@ -6421,7 +8240,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -6434,22 +8253,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1">
       <c r="A1" s="47"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1">
@@ -6457,7 +8276,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -6497,7 +8316,7 @@
       <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="82" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="50" t="s">
@@ -6510,16 +8329,16 @@
       <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A8" s="76"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="7"/>
       <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A9" s="76"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="50" t="s">
         <v>68</v>
       </c>
@@ -6530,9 +8349,9 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A10" s="76"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -6540,12 +8359,12 @@
     </row>
     <row r="11" spans="1:5" ht="135" customHeight="1">
       <c r="A11" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="66"/>
+        <v>94</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="73"/>
       <c r="D11" s="7"/>
       <c r="E11" s="51"/>
     </row>
@@ -6558,11 +8377,11 @@
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1">
       <c r="A13" s="52"/>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1">
@@ -6577,7 +8396,7 @@
       <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="82" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="50" t="s">
@@ -6590,7 +8409,7 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A16" s="76"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="50" t="s">
         <v>73</v>
       </c>
@@ -6599,57 +8418,57 @@
       <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A17" s="76"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="44"/>
       <c r="C17" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A18" s="76"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="44"/>
       <c r="C18" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A19" s="76"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="44"/>
       <c r="C19" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A20" s="76"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="44"/>
       <c r="C20" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A21" s="76"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="44"/>
       <c r="C21" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E21" s="51"/>
     </row>
@@ -6657,11 +8476,11 @@
       <c r="A22" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
+      <c r="B22" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" ht="20.25" customHeight="1">
@@ -6688,4 +8507,533 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="47"/>
+      <c r="B1" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="51"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="51"/>
+    </row>
+    <row r="5" spans="1:5" ht="24">
+      <c r="A5" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="1:5" ht="25.5">
+      <c r="A6" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="51"/>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A7" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="51"/>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="83"/>
+      <c r="B8" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="51"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="83"/>
+      <c r="B9" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="83"/>
+      <c r="B10" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="51"/>
+    </row>
+    <row r="11" spans="1:5" ht="120" customHeight="1">
+      <c r="A11" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="51"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="52"/>
+      <c r="B13" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="51"/>
+    </row>
+    <row r="14" spans="1:5" ht="24">
+      <c r="A14" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="51"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A16" s="83"/>
+      <c r="B16" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="51"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="83"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="83"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="51"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="83"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="1:5" ht="27" customHeight="1">
+      <c r="A20" s="83"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="51"/>
+    </row>
+    <row r="21" spans="1:5" ht="24" customHeight="1">
+      <c r="A21" s="83"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="51"/>
+    </row>
+    <row r="22" spans="1:5" ht="139.5" customHeight="1">
+      <c r="A22" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="1:5" ht="35.25" customHeight="1">
+      <c r="A23" s="61"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A15:A21"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="47"/>
+      <c r="B1" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="51"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="51"/>
+    </row>
+    <row r="5" spans="1:5" ht="24">
+      <c r="A5" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A6" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="51"/>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A7" s="82"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="51"/>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="83"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="51"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="83"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="83"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="51"/>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" customHeight="1">
+      <c r="A11" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="51"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="52"/>
+      <c r="B13" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="51"/>
+    </row>
+    <row r="14" spans="1:5" ht="24">
+      <c r="A14" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="51"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5">
+      <c r="A15" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="83"/>
+      <c r="B16" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="51"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="83"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="83"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="51"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="83"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="83"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="51"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="83"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="51"/>
+    </row>
+    <row r="22" spans="1:5" ht="138" customHeight="1">
+      <c r="A22" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="61"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A15:A21"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rest_book/통신규약.xlsx
+++ b/rest_book/통신규약.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="내보내기 요약" sheetId="1" r:id="rId1"/>
@@ -5414,7 +5414,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5613,6 +5613,24 @@
     <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5678,15 +5696,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6889,11 +6898,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50.1" customHeight="1">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="7" spans="2:4" ht="18">
       <c r="B7" s="1" t="s">
@@ -7275,15 +7284,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:7" ht="20.85" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -7562,11 +7571,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1">
       <c r="A1" s="32"/>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
@@ -7651,11 +7660,11 @@
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1">
       <c r="A10" s="40"/>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1">
@@ -7670,7 +7679,7 @@
       <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="81" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="35" t="s">
@@ -7683,7 +7692,7 @@
       <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A13" s="76"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="35" t="s">
         <v>60</v>
       </c>
@@ -7694,7 +7703,7 @@
       <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A14" s="76"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="35"/>
       <c r="C14" s="36"/>
       <c r="D14" s="42"/>
@@ -7704,10 +7713,10 @@
       <c r="A15" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
     </row>
@@ -7756,7 +7765,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7771,11 +7780,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1">
       <c r="A1" s="47"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
@@ -7853,10 +7862,10 @@
       <c r="B8" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="73"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1">
@@ -7879,11 +7888,11 @@
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1">
       <c r="A11" s="52"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1">
@@ -7898,7 +7907,7 @@
       <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="88" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="50" t="s">
@@ -7911,7 +7920,7 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A14" s="83"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="50" t="s">
         <v>103</v>
       </c>
@@ -7924,7 +7933,7 @@
       <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A15" s="83"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="50"/>
       <c r="C15" s="6" t="s">
         <v>67</v>
@@ -7935,7 +7944,7 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A16" s="83"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="50"/>
       <c r="C16" s="6" t="s">
         <v>92</v>
@@ -7946,7 +7955,7 @@
       <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A17" s="83"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="50"/>
       <c r="C17" s="6" t="s">
         <v>68</v>
@@ -7957,7 +7966,7 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A18" s="83"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="50"/>
       <c r="C18" s="6" t="s">
         <v>93</v>
@@ -7971,10 +7980,10 @@
       <c r="A19" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="85"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="7"/>
       <c r="E19" s="55"/>
     </row>
@@ -8003,7 +8012,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -8016,22 +8025,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1">
       <c r="A1" s="47"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1">
@@ -8093,11 +8102,11 @@
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1">
       <c r="A8" s="52"/>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1">
@@ -8112,7 +8121,7 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="88" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="50" t="s">
@@ -8125,7 +8134,7 @@
       <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A11" s="83"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="50" t="s">
         <v>73</v>
       </c>
@@ -8136,7 +8145,7 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A12" s="83"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="44"/>
       <c r="C12" s="6" t="s">
         <v>91</v>
@@ -8147,7 +8156,7 @@
       <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A13" s="83"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="44"/>
       <c r="C13" s="6" t="s">
         <v>67</v>
@@ -8158,7 +8167,7 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A14" s="83"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="44"/>
       <c r="C14" s="6" t="s">
         <v>92</v>
@@ -8169,7 +8178,7 @@
       <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A15" s="83"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="44"/>
       <c r="C15" s="6" t="s">
         <v>68</v>
@@ -8180,7 +8189,7 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A16" s="83"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="44"/>
       <c r="C16" s="6" t="s">
         <v>93</v>
@@ -8194,11 +8203,11 @@
       <c r="A17" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1">
@@ -8253,22 +8262,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" customHeight="1">
       <c r="A1" s="47"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1">
@@ -8316,7 +8325,7 @@
       <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="88" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="50" t="s">
@@ -8329,7 +8338,7 @@
       <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A8" s="83"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="50" t="s">
         <v>92</v>
       </c>
@@ -8338,7 +8347,7 @@
       <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A9" s="83"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="50" t="s">
         <v>68</v>
       </c>
@@ -8349,7 +8358,7 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A10" s="83"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="50" t="s">
         <v>93</v>
       </c>
@@ -8361,10 +8370,10 @@
       <c r="A11" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="7"/>
       <c r="E11" s="51"/>
     </row>
@@ -8377,11 +8386,11 @@
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1">
       <c r="A13" s="52"/>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="20.25" customHeight="1">
@@ -8396,7 +8405,7 @@
       <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="88" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="50" t="s">
@@ -8409,7 +8418,7 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A16" s="83"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="50" t="s">
         <v>73</v>
       </c>
@@ -8418,7 +8427,7 @@
       <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A17" s="83"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="44"/>
       <c r="C17" s="6" t="s">
         <v>91</v>
@@ -8429,7 +8438,7 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A18" s="83"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="44"/>
       <c r="C18" s="6" t="s">
         <v>67</v>
@@ -8440,7 +8449,7 @@
       <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A19" s="83"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="44"/>
       <c r="C19" s="6" t="s">
         <v>92</v>
@@ -8451,7 +8460,7 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A20" s="83"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="44"/>
       <c r="C20" s="6" t="s">
         <v>68</v>
@@ -8462,7 +8471,7 @@
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A21" s="83"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="44"/>
       <c r="C21" s="6" t="s">
         <v>93</v>
@@ -8476,11 +8485,11 @@
       <c r="A22" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" ht="20.25" customHeight="1">
@@ -8513,8 +8522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8528,62 +8537,62 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="47"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="51"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A3" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="67" t="s">
         <v>126</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
       <c r="E3" s="51"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A4" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="67" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:5" ht="24">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:5" ht="21" customHeight="1">
+      <c r="A5" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="67" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:5" ht="25.5">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:5" ht="31.5" customHeight="1">
+      <c r="A6" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="67" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="59"/>
@@ -8591,7 +8600,7 @@
       <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="88" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -8603,19 +8612,19 @@
       <c r="D7" s="59"/>
       <c r="E7" s="51"/>
     </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="83"/>
+    <row r="8" spans="1:5" ht="14.25">
+      <c r="A8" s="89"/>
       <c r="B8" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="69" t="s">
         <v>83</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="83"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="62" t="s">
         <v>68</v>
       </c>
@@ -8626,7 +8635,7 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="83"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="62" t="s">
         <v>93</v>
       </c>
@@ -8638,10 +8647,10 @@
       <c r="A11" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="59"/>
       <c r="E11" s="51"/>
     </row>
@@ -8654,14 +8663,14 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="52"/>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="1:5" ht="24">
+    <row r="14" spans="1:5">
       <c r="A14" s="49" t="s">
         <v>55</v>
       </c>
@@ -8673,7 +8682,7 @@
       <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="88" t="s">
         <v>120</v>
       </c>
       <c r="B15" s="62" t="s">
@@ -8686,7 +8695,7 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A16" s="83"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="62" t="s">
         <v>73</v>
       </c>
@@ -8695,7 +8704,7 @@
       <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="83"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="44"/>
       <c r="C17" s="63" t="s">
         <v>91</v>
@@ -8706,7 +8715,7 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="83"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="44"/>
       <c r="C18" s="63" t="s">
         <v>67</v>
@@ -8717,7 +8726,7 @@
       <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="83"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="44"/>
       <c r="C19" s="63" t="s">
         <v>92</v>
@@ -8728,7 +8737,7 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5" ht="27" customHeight="1">
-      <c r="A20" s="83"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="44"/>
       <c r="C20" s="63" t="s">
         <v>68</v>
@@ -8739,7 +8748,7 @@
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" ht="24" customHeight="1">
-      <c r="A21" s="83"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="44"/>
       <c r="C21" s="63" t="s">
         <v>93</v>
@@ -8753,11 +8762,11 @@
       <c r="A22" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" ht="35.25" customHeight="1">
@@ -8786,7 +8795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
@@ -8801,22 +8810,22 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="47"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5">
@@ -8841,7 +8850,7 @@
       <c r="D4" s="59"/>
       <c r="E4" s="51"/>
     </row>
-    <row r="5" spans="1:5" ht="24">
+    <row r="5" spans="1:5">
       <c r="A5" s="49" t="s">
         <v>66</v>
       </c>
@@ -8864,28 +8873,28 @@
       <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A7" s="82"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="62"/>
       <c r="C7" s="63"/>
       <c r="D7" s="59"/>
       <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="83"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="62"/>
       <c r="C8" s="58"/>
       <c r="D8" s="59"/>
       <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="83"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="62"/>
       <c r="C9" s="63"/>
       <c r="D9" s="59"/>
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="83"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="62"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
@@ -8895,10 +8904,10 @@
       <c r="A11" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="90"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="59"/>
       <c r="E11" s="51"/>
     </row>
@@ -8911,14 +8920,14 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="52"/>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="1:5" ht="24">
+    <row r="14" spans="1:5">
       <c r="A14" s="49" t="s">
         <v>55</v>
       </c>
@@ -8929,8 +8938,8 @@
       <c r="D14" s="59"/>
       <c r="E14" s="51"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
-      <c r="A15" s="82" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="88" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="62" t="s">
@@ -8943,7 +8952,7 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="83"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="62" t="s">
         <v>73</v>
       </c>
@@ -8952,7 +8961,7 @@
       <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="83"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="44"/>
       <c r="C17" s="63" t="s">
         <v>91</v>
@@ -8963,7 +8972,7 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="83"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="44"/>
       <c r="C18" s="63" t="s">
         <v>67</v>
@@ -8974,7 +8983,7 @@
       <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="83"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="44"/>
       <c r="C19" s="63" t="s">
         <v>92</v>
@@ -8985,7 +8994,7 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="83"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="44"/>
       <c r="C20" s="63" t="s">
         <v>68</v>
@@ -8996,7 +9005,7 @@
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="83"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="44"/>
       <c r="C21" s="63" t="s">
         <v>93</v>
@@ -9010,11 +9019,11 @@
       <c r="A22" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="93" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5">
@@ -9035,5 +9044,6 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>